--- a/8_Parcours_Entreprise/Recherche de stage.xlsx
+++ b/8_Parcours_Entreprise/Recherche de stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Multi\Desktop\ADRAR\8_Parcours_Entreprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6AA96-6E0D-4451-94DE-E36C16A3F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC18F74-C594-40B3-80ED-04382F5272A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,66 +16,36 @@
     <sheet name="Demande" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Demande!$A$1:$N$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="786">
   <si>
     <t>https://dcvo.studio/</t>
   </si>
   <si>
-    <t>https://www.hrz.fr/</t>
-  </si>
-  <si>
-    <t>https://www.orealys.com/</t>
-  </si>
-  <si>
-    <t>https://www.agoralys.com/</t>
-  </si>
-  <si>
-    <t>https://www.edencreativ.com/</t>
-  </si>
-  <si>
-    <t>https://www.webquantum.fr/</t>
-  </si>
-  <si>
     <t>https://3wconsult.com/</t>
   </si>
   <si>
     <t>https://kwalt-digital.com/</t>
   </si>
   <si>
-    <t>https://www.cndcreation.com/</t>
-  </si>
-  <si>
     <t>https://linkweb.fr/</t>
   </si>
   <si>
-    <t>https://www.dailyweb.fr/</t>
-  </si>
-  <si>
     <t>https://gypsea-agency.com/</t>
   </si>
   <si>
-    <t>https://www.fpstudio.fr/</t>
-  </si>
-  <si>
     <t>CONTACT</t>
   </si>
   <si>
@@ -2101,13 +2071,322 @@
     <t>laurence.marty@manatour.fr</t>
   </si>
   <si>
-    <t>702 mails (onglet feuil2)</t>
-  </si>
-  <si>
     <t>https://mashvp.com/fr/</t>
   </si>
   <si>
     <t>LUNDI 13 !!</t>
+  </si>
+  <si>
+    <t>https://thisispam.com/</t>
+  </si>
+  <si>
+    <t>https://westadgency.com/</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>bonjour@dcvo.studio</t>
+  </si>
+  <si>
+    <t>info@orealys.com</t>
+  </si>
+  <si>
+    <t>toulouse@hrz.fr</t>
+  </si>
+  <si>
+    <t>info@agoralys.com</t>
+  </si>
+  <si>
+    <t>contact@edencreativ.com</t>
+  </si>
+  <si>
+    <t>contact@webquantum.fr</t>
+  </si>
+  <si>
+    <t>contact@cndcreation.com</t>
+  </si>
+  <si>
+    <t>contact@dailyweb.fr</t>
+  </si>
+  <si>
+    <t>contact@fpstudio.fr</t>
+  </si>
+  <si>
+    <t>contact@advency.fr</t>
+  </si>
+  <si>
+    <t>contact@linkweb.fr</t>
+  </si>
+  <si>
+    <t>marion@gypsea-agency.com</t>
+  </si>
+  <si>
+    <t>job@mashvp.com</t>
+  </si>
+  <si>
+    <t>info@thisispam.com</t>
+  </si>
+  <si>
+    <t>Contact@westadgency.com</t>
+  </si>
+  <si>
+    <t>contact@kwalt-digital.com</t>
+  </si>
+  <si>
+    <t>contact@greenjuice.fr</t>
+  </si>
+  <si>
+    <t>https://greenjuice.fr/</t>
+  </si>
+  <si>
+    <t>contact@com3elles.com</t>
+  </si>
+  <si>
+    <t>contact@syril.fr</t>
+  </si>
+  <si>
+    <t>https://syril-digital.fr/arbre-a-liens/</t>
+  </si>
+  <si>
+    <t>contact@agence-appy.fr</t>
+  </si>
+  <si>
+    <t>hello@agence-diantre.fr</t>
+  </si>
+  <si>
+    <t>https://agence-diantre.fr/</t>
+  </si>
+  <si>
+    <t>bonjour@so-happy-web.com</t>
+  </si>
+  <si>
+    <t>https://so-happy-web.com/</t>
+  </si>
+  <si>
+    <t>contact@agoravita.com</t>
+  </si>
+  <si>
+    <t>contact@atchik.com</t>
+  </si>
+  <si>
+    <t>https://atchik.com</t>
+  </si>
+  <si>
+    <t>contentfactory@prodigious.com</t>
+  </si>
+  <si>
+    <t>https://contentfactory.fr/</t>
+  </si>
+  <si>
+    <t>Sur leur site.</t>
+  </si>
+  <si>
+    <t>contact@a-la-une.fr</t>
+  </si>
+  <si>
+    <t>https://kardinalt.com/</t>
+  </si>
+  <si>
+    <t>contact@kardinalt.com</t>
+  </si>
+  <si>
+    <t>recrutement@kalenya.com</t>
+  </si>
+  <si>
+    <t>http://emarquest.com/</t>
+  </si>
+  <si>
+    <t>contact@emarquest.com</t>
+  </si>
+  <si>
+    <t>jeveuxunstage@w2p-digital.com</t>
+  </si>
+  <si>
+    <t>https://w2p-digital.com</t>
+  </si>
+  <si>
+    <t>hello@pi-communication.fr</t>
+  </si>
+  <si>
+    <t>https://pi-communication.fr/</t>
+  </si>
+  <si>
+    <t>contact@cartonrouge.fr</t>
+  </si>
+  <si>
+    <t>contact@ezia.fr</t>
+  </si>
+  <si>
+    <t>https://ezia.fr/</t>
+  </si>
+  <si>
+    <t>contact@akadom.com</t>
+  </si>
+  <si>
+    <t>contact@cinquieme-dimension.com</t>
+  </si>
+  <si>
+    <t>contact@agence-pure.com</t>
+  </si>
+  <si>
+    <t>https://agence-pure.com/</t>
+  </si>
+  <si>
+    <t>contact@occitech.fr</t>
+  </si>
+  <si>
+    <t>contact@webgo-agency.com</t>
+  </si>
+  <si>
+    <t>info@campagnesetcie.fr</t>
+  </si>
+  <si>
+    <t>contact@youneat.fr</t>
+  </si>
+  <si>
+    <t>https://pickbeam.com/</t>
+  </si>
+  <si>
+    <t>contact@pickbeam.com</t>
+  </si>
+  <si>
+    <t>https://studio-dot.fr/</t>
+  </si>
+  <si>
+    <t>bonjour@silgoweb636.com</t>
+  </si>
+  <si>
+    <t>https://fraichtouch.com/</t>
+  </si>
+  <si>
+    <t>media@fraichtouch.com</t>
+  </si>
+  <si>
+    <t>commercial@melting-k.fr</t>
+  </si>
+  <si>
+    <t>https://advency.fr/</t>
+  </si>
+  <si>
+    <t>https://agence-appy.fr</t>
+  </si>
+  <si>
+    <t>https://agoralys.com/</t>
+  </si>
+  <si>
+    <t>https://agoravita.com</t>
+  </si>
+  <si>
+    <t>https://aims-interactive.com/</t>
+  </si>
+  <si>
+    <t>https://akadom.com/</t>
+  </si>
+  <si>
+    <t>https://a-la-une.fr/</t>
+  </si>
+  <si>
+    <t>https://campagnesetcie.fr/</t>
+  </si>
+  <si>
+    <t>https://cartonrouge.fr</t>
+  </si>
+  <si>
+    <t>https://cinquieme-dimension.com/</t>
+  </si>
+  <si>
+    <t>https://cndcreation.com/</t>
+  </si>
+  <si>
+    <t>https://com3elles.com</t>
+  </si>
+  <si>
+    <t>https://dailyweb.fr/</t>
+  </si>
+  <si>
+    <t>https://edencreativ.com/</t>
+  </si>
+  <si>
+    <t>https://fpstudio.fr/</t>
+  </si>
+  <si>
+    <t>https://hrz.fr/</t>
+  </si>
+  <si>
+    <t>https://kalenya.com/</t>
+  </si>
+  <si>
+    <t>https://melting-k.fr</t>
+  </si>
+  <si>
+    <t>https://occitech.fr/</t>
+  </si>
+  <si>
+    <t>https://orealys.com/</t>
+  </si>
+  <si>
+    <t>https://silgoweb.fr/</t>
+  </si>
+  <si>
+    <t>https://webgo-agency.com/</t>
+  </si>
+  <si>
+    <t>https://webquantum.fr/</t>
+  </si>
+  <si>
+    <t>https://ws-interactive.fr/</t>
+  </si>
+  <si>
+    <t>https://youneat.fr/</t>
+  </si>
+  <si>
+    <t>https://www.wp-creation-site.fr/</t>
+  </si>
+  <si>
+    <t>sur site</t>
+  </si>
+  <si>
+    <t>https://kwantic.fr/</t>
+  </si>
+  <si>
+    <t>https://www.valetudo.io</t>
+  </si>
+  <si>
+    <t>https://www.darmandesign.fr/contact/</t>
+  </si>
+  <si>
+    <t>https://www.tabem.fr/</t>
+  </si>
+  <si>
+    <t>https://www.lesmobinotes.com/</t>
+  </si>
+  <si>
+    <t>hello@lesmobinotes.com</t>
+  </si>
+  <si>
+    <t>https://booge.fr/</t>
+  </si>
+  <si>
+    <t>https://webbuzz.fr/</t>
+  </si>
+  <si>
+    <t>https://www.agenceverywell.fr/</t>
+  </si>
+  <si>
+    <t>https://contact.verywell.digital/</t>
+  </si>
+  <si>
+    <t>https://www.sublimeo.com</t>
+  </si>
+  <si>
+    <t>https://www.digeek.fr/</t>
+  </si>
+  <si>
+    <t>https://airmob-digital.com/</t>
+  </si>
+  <si>
+    <t>https://www.codekitchen.fr/</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2201,14 +2480,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{1908ADA3-A944-4C61-BB2D-A3F2D17E3D99}"/>
@@ -2492,213 +2774,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="4" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D4" s="4">
         <v>44993</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
       <c r="B5" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>717</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" t="s">
+        <v>712</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C19" t="s">
+        <v>703</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C24" t="s">
+        <v>728</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B29" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D29" s="4">
         <v>44993</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" t="s">
+        <v>719</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44993</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C33" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D33" s="4">
         <v>44993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D34" s="4">
         <v>44993</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="H34" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C35" t="s">
+        <v>744</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C36" t="s">
+        <v>734</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D37" s="4">
         <v>44993</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C38" t="s">
+        <v>739</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C42" t="s">
+        <v>771</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44994</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C46" t="s">
+        <v>735</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B47" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D47" s="4">
         <v>44993</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D48" s="4">
         <v>44993</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="C17" s="4">
-        <v>44993</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>690</v>
-      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C50" t="s">
+        <v>737</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C51" t="s">
+        <v>771</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C52" t="s">
+        <v>771</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>775</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>776</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>778</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>779</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>780</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>781</v>
+      </c>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J1:J2"/>
+  <autoFilter ref="A1:N81" xr:uid="{FF41105F-69BF-4A3B-857C-40889A440ED2}">
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <sortState ref="A4:N81">
+      <sortCondition ref="B1:B81"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="12">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="E1:G2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{040CCCA3-EEFA-4544-BA3A-FDF5A7B99C2F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{5F983DDB-3D69-4D2F-BBC1-B1CD9111E904}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{C2ECAC7D-9EE7-4FC8-B43F-55707CB95949}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{F665E7D3-5CE5-4EF9-907A-DAB7CB350FC7}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{7E4D83C1-A857-46C8-AF3D-4F9B4DADC28C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{67F713FB-1075-40D5-9E28-78DD33B874B4}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{66D235AD-04F2-4366-9DEC-1415CBFB27D6}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{202CC120-1823-42F6-ACBE-AEB66FE8E433}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{3B10F9C8-AA8B-4C3E-AF00-A3DDAA30C635}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{19F38060-136F-4BAE-A54C-FA858DD3FEBF}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{B40A47A5-DB84-4FCF-8F2A-2253F1092841}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{DA53F0FB-99FB-4ECA-986F-AEAE849E31F2}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{53EC6BA4-AF71-48AC-A8E6-476730D149F7}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{656B1DF4-776B-438D-81E9-0EB266D0591C}"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{DA22C476-2B44-4B83-8B1E-5F658830127B}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://www.hrz.fr/" xr:uid="{485335BA-8B66-45A3-92AF-A15EF5C952B1}"/>
+    <hyperlink ref="B37" r:id="rId3" display="https://www.orealys.com/" xr:uid="{696F9CB1-F15F-4C80-82CC-F5A69AF2CCF1}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://www.agoralys.com/" xr:uid="{0F3E6407-B758-4C75-86F9-0B28BEF33633}"/>
+    <hyperlink ref="B23" r:id="rId5" display="https://www.edencreativ.com/" xr:uid="{21DB1D4B-524C-400C-B668-014A3899CA40}"/>
+    <hyperlink ref="B47" r:id="rId6" display="https://www.webquantum.fr/" xr:uid="{B76A07BE-374B-45BD-B2BF-C7DBABA28FA7}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{63422B1B-DC72-4F67-BD1B-5AB0564A8F42}"/>
+    <hyperlink ref="B32" r:id="rId8" xr:uid="{3F40542B-0E17-4E5D-8F00-072F738A1C00}"/>
+    <hyperlink ref="B18" r:id="rId9" display="https://www.cndcreation.com/" xr:uid="{8CC08E7F-AEAC-4044-958D-63664C9B9DD4}"/>
+    <hyperlink ref="B33" r:id="rId10" xr:uid="{FD6B0C89-9592-41CB-97F5-60DC6CBE2865}"/>
+    <hyperlink ref="B21" r:id="rId11" display="https://www.dailyweb.fr/" xr:uid="{9DD5F37C-E9C5-45CB-B5ED-E0A013D6F8E7}"/>
+    <hyperlink ref="B28" r:id="rId12" xr:uid="{96889CA7-B20A-4064-89E4-1E4DEAE06932}"/>
+    <hyperlink ref="B25" r:id="rId13" display="https://www.fpstudio.fr/" xr:uid="{1F2537E2-A552-4DC5-A4DE-9971B45457E7}"/>
+    <hyperlink ref="B34" r:id="rId14" xr:uid="{ACBD5C93-1D79-4F12-9AE6-9F89890EFBE1}"/>
+    <hyperlink ref="B44" r:id="rId15" xr:uid="{2ACCD40B-A58D-4FDD-B2E7-91BE2358BF73}"/>
+    <hyperlink ref="B48" r:id="rId16" xr:uid="{857B0EF2-82F4-482D-A7AB-F815032EE596}"/>
+    <hyperlink ref="B5" r:id="rId17" xr:uid="{C64804B1-55AF-4E60-B2DE-14A90F8BB7A7}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{07FCAC87-1286-4C71-9836-466CFC06AEED}"/>
+    <hyperlink ref="C33" r:id="rId19" xr:uid="{3C7CE041-46F3-43D5-B80B-FAEC4FB0BA43}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{73157005-CAD0-417B-B630-38AD64703A85}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{22410345-D0A7-4047-AA38-494A7D37289D}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{055A1788-4AE7-4318-9064-51CCBB191A38}"/>
+    <hyperlink ref="C44" r:id="rId23" xr:uid="{74DBF97E-86F9-4C68-8086-FF78226B4E1F}"/>
+    <hyperlink ref="C48" r:id="rId24" xr:uid="{F4BEC7E3-79AC-461A-802E-FCB70397FB31}"/>
+    <hyperlink ref="C5" r:id="rId25" xr:uid="{6E701A9D-38A4-4A38-B8BC-9E29C34D263E}"/>
+    <hyperlink ref="C18" r:id="rId26" xr:uid="{2AA68203-34F3-494A-BEFB-EFB5AE0A6B94}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{6104D215-9779-466B-9D47-1A00BF4328D3}"/>
+    <hyperlink ref="C27" r:id="rId28" xr:uid="{FB9A8037-B802-4211-B08B-B8275A36CD57}"/>
+    <hyperlink ref="B27" r:id="rId29" xr:uid="{B53ADB48-6BBD-4FDF-BA1D-70B7C0FC888D}"/>
+    <hyperlink ref="C43" r:id="rId30" xr:uid="{EAF09B92-B6AE-4FA9-9F04-C86219CD5975}"/>
+    <hyperlink ref="B43" r:id="rId31" xr:uid="{A951A2BC-B79E-47CC-9397-2A11D35F28B0}"/>
+    <hyperlink ref="C7" r:id="rId32" xr:uid="{0AE253D0-CFE5-4CA2-9A3C-CEA2D9249949}"/>
+    <hyperlink ref="C41" r:id="rId33" xr:uid="{AADF613B-34A5-49B4-A281-281AE68EDEEB}"/>
+    <hyperlink ref="C30" r:id="rId34" xr:uid="{EF41565A-6E9C-4046-BDB0-13320FCCCE46}"/>
+    <hyperlink ref="C3" r:id="rId35" xr:uid="{3B8E5166-5FAA-4E09-B2A6-8B531568B95D}"/>
+    <hyperlink ref="B39" r:id="rId36" xr:uid="{F46E9DF2-BE40-4691-81C9-DC0087F378C2}"/>
+    <hyperlink ref="C16" r:id="rId37" xr:uid="{93AE6CA3-2B40-4D93-B8AB-D57B0ACB0E7F}"/>
+    <hyperlink ref="B17" r:id="rId38" display="https://www.cinquieme-dimension.com/" xr:uid="{20F91724-D5A7-4ECB-B8CB-EA1E1C4A4684}"/>
+    <hyperlink ref="B50" r:id="rId39" display="https://www.youneat.fr/" xr:uid="{740739C1-C09D-41EF-AD54-0706505690E4}"/>
+    <hyperlink ref="C40" r:id="rId40" xr:uid="{E6DB8A40-5E6A-43CC-8D1C-ADEE79E2C57B}"/>
+    <hyperlink ref="C26" r:id="rId41" xr:uid="{BC3BF116-DC5B-4C48-A670-DEAC141382D7}"/>
+    <hyperlink ref="B35" r:id="rId42" display="https://www.melting-k.fr" xr:uid="{CD383D02-F68D-426C-A718-BE34E56F9AA1}"/>
+    <hyperlink ref="B42" r:id="rId43" xr:uid="{4F9DA74B-42EF-4E47-ACDF-38ECD2A0A903}"/>
+    <hyperlink ref="B40" r:id="rId44" display="https://www.silgoweb.fr/" xr:uid="{3EC1622B-BBF7-4EFC-A4BD-8F19A97101B1}"/>
+    <hyperlink ref="B26" r:id="rId45" xr:uid="{2F339BFA-F55C-49A7-AE30-34450552BE1F}"/>
+    <hyperlink ref="B38" r:id="rId46" xr:uid="{04C4052B-FA1C-4E8F-B9F1-163870CC58B3}"/>
+    <hyperlink ref="B15" r:id="rId47" display="https://www.campagnesetcie.fr/" xr:uid="{A28F16E4-95D2-41FE-9A27-0E1C08542210}"/>
+    <hyperlink ref="B46" r:id="rId48" display="https://www.webgo-agency.com/" xr:uid="{AB9DCA0A-343C-4FDA-9FC5-4DC4A3FF6C7F}"/>
+    <hyperlink ref="B12" r:id="rId49" display="https://www.akadom.com/" xr:uid="{A9BDA297-1E84-4D5E-B0F2-0D6DAB8877DB}"/>
+    <hyperlink ref="B8" r:id="rId50" xr:uid="{5BC2013D-EF12-468F-8F07-E05491B8849B}"/>
+    <hyperlink ref="B36" r:id="rId51" display="https://www.occitech.fr/" xr:uid="{BDD9EBC0-C6AE-4C6A-BF09-FE1B28978321}"/>
+    <hyperlink ref="B24" r:id="rId52" xr:uid="{2B0545E6-92AD-43A7-BC16-56C6A831C5EA}"/>
+    <hyperlink ref="B16" r:id="rId53" display="https://www.cartonrouge.fr" xr:uid="{7CE7BC65-4B84-4ACC-8B05-EA504B976A0E}"/>
+    <hyperlink ref="B45" r:id="rId54" xr:uid="{35F997D1-165D-46F9-8276-1DEA8C542FAE}"/>
+    <hyperlink ref="B3" r:id="rId55" xr:uid="{516BA35D-2B21-401D-A349-8E81A6990F7E}"/>
+    <hyperlink ref="B30" r:id="rId56" display="https://www.kalenya.com/" xr:uid="{BBE64F68-2951-4CEC-9956-24ED77D78A42}"/>
+    <hyperlink ref="B19" r:id="rId57" display="https://www.com3elles.com" xr:uid="{EBD7BDB7-AF9B-4DD4-976B-2A5DFAA9D337}"/>
+    <hyperlink ref="B6" r:id="rId58" display="https://www.agence-appy.fr" xr:uid="{EBDB5262-FCB4-4508-AFBE-12BFA6EE8421}"/>
+    <hyperlink ref="B7" r:id="rId59" xr:uid="{D4310889-D680-483C-A7E1-45FC43F47BA1}"/>
+    <hyperlink ref="B41" r:id="rId60" xr:uid="{D47AD211-0627-45EE-810D-183082251E41}"/>
+    <hyperlink ref="B10" r:id="rId61" display="https://www.agoravita.com" xr:uid="{66AC05E5-2ABF-4B49-9148-2B52893AD8C8}"/>
+    <hyperlink ref="B14" r:id="rId62" xr:uid="{ACE5F16B-D07E-4401-93D5-232A91B54672}"/>
+    <hyperlink ref="B20" r:id="rId63" xr:uid="{81CFBDEB-5D54-404B-8A76-4FDAF19F5D48}"/>
+    <hyperlink ref="B11" r:id="rId64" display="https://www.aims-interactive.com/" xr:uid="{25EBBD38-42E0-431A-9E13-383BB2E14297}"/>
+    <hyperlink ref="B13" r:id="rId65" display="https://www.a-la-une.fr/" xr:uid="{8E356F02-FD62-4927-BB20-56FCB6C678A2}"/>
+    <hyperlink ref="B49" r:id="rId66" display="https://www.ws-interactive.fr/" xr:uid="{DEF0BCB0-D7D9-4885-9D5C-21B03C5FAC21}"/>
+    <hyperlink ref="B31" r:id="rId67" xr:uid="{1D62C41D-524C-4C96-A810-D74C036D335A}"/>
+    <hyperlink ref="B51" r:id="rId68" xr:uid="{E65B8C54-8B2A-4A9A-9C4A-E31A610E0FDB}"/>
+    <hyperlink ref="B52" r:id="rId69" xr:uid="{B741BC77-7C2C-4B75-9C8C-B587BD4DDC35}"/>
+    <hyperlink ref="B53" r:id="rId70" xr:uid="{45446492-192F-4EB1-B1FF-A280EFF664CE}"/>
+    <hyperlink ref="C56" r:id="rId71" xr:uid="{92F5DA5E-A6F5-40E0-853C-6F3022BF4F5E}"/>
+    <hyperlink ref="B61" r:id="rId72" xr:uid="{1E6CAC2A-A68C-4B77-9CD3-BFB72F4A7509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -2717,3512 +3840,3512 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
